--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="H2">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="I2">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="J2">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N2">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O2">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P2">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q2">
-        <v>25.689368178537</v>
+        <v>88.207788090478</v>
       </c>
       <c r="R2">
-        <v>102.757472714148</v>
+        <v>352.831152361912</v>
       </c>
       <c r="S2">
-        <v>0.009933611251422177</v>
+        <v>0.05304431014058598</v>
       </c>
       <c r="T2">
-        <v>0.006453131894015562</v>
+        <v>0.03532611003417523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="H3">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="I3">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="J3">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>68.241472</v>
       </c>
       <c r="O3">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P3">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q3">
-        <v>228.926151682592</v>
+        <v>291.3156899870187</v>
       </c>
       <c r="R3">
-        <v>1373.556910095552</v>
+        <v>1747.894139922112</v>
       </c>
       <c r="S3">
-        <v>0.08852157749830977</v>
+        <v>0.1751845289742428</v>
       </c>
       <c r="T3">
-        <v>0.08625887413016028</v>
+        <v>0.1750024063964826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="H4">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="I4">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="J4">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N4">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O4">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P4">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q4">
-        <v>2.834771912658</v>
+        <v>2.911266974602</v>
       </c>
       <c r="R4">
-        <v>17.008631475948</v>
+        <v>17.467601847612</v>
       </c>
       <c r="S4">
-        <v>0.001096154719380052</v>
+        <v>0.001750708771253093</v>
       </c>
       <c r="T4">
-        <v>0.001068135867415947</v>
+        <v>0.001748888727004923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="H5">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="I5">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="J5">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N5">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O5">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P5">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q5">
-        <v>182.0904027688883</v>
+        <v>159.3913994154388</v>
       </c>
       <c r="R5">
-        <v>728.361611075553</v>
+        <v>637.5655976617551</v>
       </c>
       <c r="S5">
-        <v>0.07041104557924693</v>
+        <v>0.09585102412569441</v>
       </c>
       <c r="T5">
-        <v>0.04574084413192334</v>
+        <v>0.06383425133022685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="H6">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="I6">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="J6">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N6">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O6">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P6">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q6">
-        <v>32.00246106279599</v>
+        <v>10.95784407889733</v>
       </c>
       <c r="R6">
-        <v>192.014766376776</v>
+        <v>65.747064473384</v>
       </c>
       <c r="S6">
-        <v>0.01237476940177105</v>
+        <v>0.006589568703355341</v>
       </c>
       <c r="T6">
-        <v>0.01205845745617795</v>
+        <v>0.00658271815984211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="H7">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="I7">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="J7">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N7">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O7">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P7">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q7">
-        <v>4.5779982324405</v>
+        <v>6.289230913299833</v>
       </c>
       <c r="R7">
-        <v>27.467989394643</v>
+        <v>37.735385479799</v>
       </c>
       <c r="S7">
-        <v>0.001770228618886634</v>
+        <v>0.003782068707681946</v>
       </c>
       <c r="T7">
-        <v>0.001724979738652593</v>
+        <v>0.003778136853046481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="H8">
         <v>16.668628</v>
       </c>
       <c r="I8">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="J8">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N8">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O8">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P8">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q8">
-        <v>14.18285773119734</v>
+        <v>38.26914742780266</v>
       </c>
       <c r="R8">
-        <v>85.09714638718401</v>
+        <v>229.614884566816</v>
       </c>
       <c r="S8">
-        <v>0.005484253024706555</v>
+        <v>0.02301339336265826</v>
       </c>
       <c r="T8">
-        <v>0.005344069827101153</v>
+        <v>0.02298946854151819</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="H9">
         <v>16.668628</v>
       </c>
       <c r="I9">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="J9">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>68.241472</v>
       </c>
       <c r="O9">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P9">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q9">
-        <v>126.3879678822685</v>
+        <v>126.3879678822684</v>
       </c>
       <c r="R9">
         <v>1137.491710940416</v>
       </c>
       <c r="S9">
-        <v>0.04887192752559111</v>
+        <v>0.07600420225375969</v>
       </c>
       <c r="T9">
-        <v>0.07143406552502027</v>
+        <v>0.1138877819451329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="H10">
         <v>16.668628</v>
       </c>
       <c r="I10">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="J10">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N10">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O10">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P10">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q10">
-        <v>1.565050820176</v>
+        <v>1.263059730490667</v>
       </c>
       <c r="R10">
-        <v>14.085457381584</v>
+        <v>11.367537574416</v>
       </c>
       <c r="S10">
-        <v>0.0006051766757477799</v>
+        <v>0.0007595489414325793</v>
       </c>
       <c r="T10">
-        <v>0.00088456159800417</v>
+        <v>0.001138138966707608</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="H11">
         <v>16.668628</v>
       </c>
       <c r="I11">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="J11">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N11">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O11">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P11">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q11">
-        <v>100.5303929134874</v>
+        <v>69.15231744272333</v>
       </c>
       <c r="R11">
-        <v>603.1823574809241</v>
+        <v>414.91390465634</v>
       </c>
       <c r="S11">
-        <v>0.0388732737689379</v>
+        <v>0.04158518258738701</v>
       </c>
       <c r="T11">
-        <v>0.03787963255767895</v>
+        <v>0.04154195045556699</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="H12">
         <v>16.668628</v>
       </c>
       <c r="I12">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="J12">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N12">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O12">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P12">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q12">
-        <v>17.66825673357867</v>
+        <v>4.754085320856888</v>
       </c>
       <c r="R12">
-        <v>159.014310602208</v>
+        <v>42.786767887712</v>
       </c>
       <c r="S12">
-        <v>0.006831993401391934</v>
+        <v>0.00285889921574354</v>
       </c>
       <c r="T12">
-        <v>0.009986040842076129</v>
+        <v>0.004283890638028578</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="H13">
         <v>16.668628</v>
       </c>
       <c r="I13">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="J13">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N13">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O13">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P13">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q13">
-        <v>2.527469619849334</v>
+        <v>2.728596989436888</v>
       </c>
       <c r="R13">
-        <v>22.747226578644</v>
+        <v>24.557372904932</v>
       </c>
       <c r="S13">
-        <v>0.0009773265141779328</v>
+        <v>0.001640859022651127</v>
       </c>
       <c r="T13">
-        <v>0.001428517551646981</v>
+        <v>0.002458729767999787</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="H14">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="I14">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="J14">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N14">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O14">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P14">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q14">
-        <v>7.756422250937333</v>
+        <v>24.92238510978534</v>
       </c>
       <c r="R14">
-        <v>46.538533505624</v>
+        <v>149.534310658712</v>
       </c>
       <c r="S14">
-        <v>0.002999267354775416</v>
+        <v>0.01498723359722568</v>
       </c>
       <c r="T14">
-        <v>0.002922602969238899</v>
+        <v>0.0149716528057471</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="H15">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="I15">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="J15">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>68.241472</v>
       </c>
       <c r="O15">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P15">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q15">
-        <v>69.11995205144177</v>
+        <v>82.30885244432356</v>
       </c>
       <c r="R15">
-        <v>622.079568462976</v>
+        <v>740.7796719989121</v>
       </c>
       <c r="S15">
-        <v>0.02672742780687048</v>
+        <v>0.04949694795536695</v>
       </c>
       <c r="T15">
-        <v>0.03906637053084273</v>
+        <v>0.0741682360781778</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="H16">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="I16">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="J16">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N16">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O16">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P16">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q16">
-        <v>0.8559061393359999</v>
+        <v>0.8225545416013335</v>
       </c>
       <c r="R16">
-        <v>7.703155254024</v>
+        <v>7.402990874412001</v>
       </c>
       <c r="S16">
-        <v>0.0003309633306969719</v>
+        <v>0.0004946483656011627</v>
       </c>
       <c r="T16">
-        <v>0.0004837553468503283</v>
+        <v>0.0007412011906001539</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="H17">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="I17">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="J17">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N17">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O17">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P17">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q17">
-        <v>54.97877728650234</v>
+        <v>45.03472908020917</v>
       </c>
       <c r="R17">
-        <v>329.872663719014</v>
+        <v>270.2083744812551</v>
       </c>
       <c r="S17">
-        <v>0.0212592928267859</v>
+        <v>0.02708191859405389</v>
       </c>
       <c r="T17">
-        <v>0.02071588324413852</v>
+        <v>0.02705376411686392</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="H18">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="I18">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="J18">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N18">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O18">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P18">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q18">
-        <v>9.662542081498666</v>
+        <v>3.096048727887112</v>
       </c>
       <c r="R18">
-        <v>86.96287873348798</v>
+        <v>27.864438550984</v>
       </c>
       <c r="S18">
-        <v>0.003736329211019999</v>
+        <v>0.001861828444943615</v>
       </c>
       <c r="T18">
-        <v>0.005461237139527404</v>
+        <v>0.002789839320318573</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="H19">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="I19">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="J19">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N19">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O19">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P19">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q19">
-        <v>1.382240587159333</v>
+        <v>1.776970472322111</v>
       </c>
       <c r="R19">
-        <v>12.440165284434</v>
+        <v>15.992734250899</v>
       </c>
       <c r="S19">
-        <v>0.000534487284909173</v>
+        <v>0.001068592409865595</v>
       </c>
       <c r="T19">
-        <v>0.0007812378530087502</v>
+        <v>0.001601222245010496</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="H20">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="I20">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="J20">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N20">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O20">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P20">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q20">
-        <v>57.772813625963</v>
+        <v>82.63757089110601</v>
       </c>
       <c r="R20">
-        <v>231.091254503852</v>
+        <v>330.550283564424</v>
       </c>
       <c r="S20">
-        <v>0.02233969584120249</v>
+        <v>0.04969462486822837</v>
       </c>
       <c r="T20">
-        <v>0.0145124466910089</v>
+        <v>0.03309530808392757</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="H21">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="I21">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="J21">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>68.241472</v>
       </c>
       <c r="O21">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P21">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q21">
-        <v>514.8319648560747</v>
+        <v>272.919449678304</v>
       </c>
       <c r="R21">
-        <v>3088.991789136448</v>
+        <v>1637.516698069824</v>
       </c>
       <c r="S21">
-        <v>0.1990761533387521</v>
+        <v>0.1641218337465234</v>
       </c>
       <c r="T21">
-        <v>0.1939875603040602</v>
+        <v>0.163951211993543</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="H22">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="I22">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="J22">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N22">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O22">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P22">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q22">
-        <v>6.375117840341999</v>
+        <v>2.727423918054</v>
       </c>
       <c r="R22">
-        <v>38.250707042052</v>
+        <v>16.364543508324</v>
       </c>
       <c r="S22">
-        <v>0.002465142072309621</v>
+        <v>0.001640153588770537</v>
       </c>
       <c r="T22">
-        <v>0.002402130483185055</v>
+        <v>0.001638448478157982</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="H23">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="I23">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="J23">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N23">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O23">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P23">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q23">
-        <v>409.5030609212367</v>
+        <v>149.3260215879712</v>
       </c>
       <c r="R23">
-        <v>1638.012243684947</v>
+        <v>597.304086351885</v>
       </c>
       <c r="S23">
-        <v>0.1583473826677306</v>
+        <v>0.08979814563593212</v>
       </c>
       <c r="T23">
-        <v>0.1028665728468813</v>
+        <v>0.05980319406911582</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="H24">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="I24">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="J24">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N24">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O24">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P24">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q24">
-        <v>71.97032662320399</v>
+        <v>10.265869221828</v>
       </c>
       <c r="R24">
-        <v>431.821959739224</v>
+        <v>61.595215330968</v>
       </c>
       <c r="S24">
-        <v>0.02782961579063262</v>
+        <v>0.006173445255273598</v>
       </c>
       <c r="T24">
-        <v>0.02711826193586231</v>
+        <v>0.006167027315458165</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="H25">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="I25">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="J25">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N25">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O25">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P25">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q25">
-        <v>10.2954590718095</v>
+        <v>5.8920734404455</v>
       </c>
       <c r="R25">
-        <v>61.772754430857</v>
+        <v>35.352440642673</v>
       </c>
       <c r="S25">
-        <v>0.003981066695121331</v>
+        <v>0.003543235554501328</v>
       </c>
       <c r="T25">
-        <v>0.003879306499760479</v>
+        <v>0.00353955199182273</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="H26">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="I26">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="J26">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N26">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O26">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P26">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q26">
-        <v>24.74904857085134</v>
+        <v>4.232537269510667</v>
       </c>
       <c r="R26">
-        <v>148.494291425108</v>
+        <v>25.395223617064</v>
       </c>
       <c r="S26">
-        <v>0.009570006768434416</v>
+        <v>0.002545263003026699</v>
       </c>
       <c r="T26">
-        <v>0.009325387465885687</v>
+        <v>0.002542616936836362</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="H27">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="I27">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="J27">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>68.241472</v>
       </c>
       <c r="O27">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P27">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q27">
-        <v>220.5466638087325</v>
+        <v>13.97840872960711</v>
       </c>
       <c r="R27">
-        <v>1984.919974278592</v>
+        <v>125.805678566464</v>
       </c>
       <c r="S27">
-        <v>0.0852813820039546</v>
+        <v>0.008406004322028747</v>
       </c>
       <c r="T27">
-        <v>0.1246522520918535</v>
+        <v>0.01259589810653789</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="H28">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="I28">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="J28">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N28">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O28">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P28">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q28">
-        <v>2.731009469212</v>
+        <v>0.1396934016626667</v>
       </c>
       <c r="R28">
-        <v>24.579085222908</v>
+        <v>1.257240614964</v>
       </c>
       <c r="S28">
-        <v>0.001056031670478001</v>
+        <v>8.400550884222704E-05</v>
       </c>
       <c r="T28">
-        <v>0.001543557607911429</v>
+        <v>0.0001258772645395436</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="H29">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="I29">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="J29">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N29">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O29">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P29">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q29">
-        <v>175.4252650782689</v>
+        <v>7.648191311330834</v>
       </c>
       <c r="R29">
-        <v>1052.551590469613</v>
+        <v>45.889147867985</v>
       </c>
       <c r="S29">
-        <v>0.06783375810780452</v>
+        <v>0.004599288120870158</v>
       </c>
       <c r="T29">
-        <v>0.06609985686832766</v>
+        <v>0.004594506681474001</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="H30">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="I30">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="J30">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N30">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O30">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P30">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q30">
-        <v>30.83106044981067</v>
+        <v>0.5257980554942222</v>
       </c>
       <c r="R30">
-        <v>277.479544048296</v>
+        <v>4.732182499448</v>
       </c>
       <c r="S30">
-        <v>0.01192181009859925</v>
+        <v>0.0003161919795375</v>
       </c>
       <c r="T30">
-        <v>0.017425614394158</v>
+        <v>0.0004737948975260165</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="H31">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="I31">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="J31">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N31">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O31">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P31">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q31">
-        <v>4.410427684500334</v>
+        <v>0.3017806569392222</v>
       </c>
       <c r="R31">
-        <v>39.69384916050301</v>
+        <v>2.716025912453</v>
       </c>
       <c r="S31">
-        <v>0.001705432136977976</v>
+        <v>0.0001814777029063935</v>
       </c>
       <c r="T31">
-        <v>0.002492759283078565</v>
+        <v>0.000271933556877568</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="H32">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="I32">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="J32">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.552614</v>
+        <v>6.887636000000001</v>
       </c>
       <c r="N32">
-        <v>5.105228</v>
+        <v>13.775272</v>
       </c>
       <c r="O32">
-        <v>0.05395552785558978</v>
+        <v>0.1577750194790557</v>
       </c>
       <c r="P32">
-        <v>0.04209357928847631</v>
+        <v>0.1234002868419981</v>
       </c>
       <c r="Q32">
-        <v>9.384185058656</v>
+        <v>24.09585501451334</v>
       </c>
       <c r="R32">
-        <v>56.30511035193599</v>
+        <v>144.57513008708</v>
       </c>
       <c r="S32">
-        <v>0.003628693615048726</v>
+        <v>0.01449019450733075</v>
       </c>
       <c r="T32">
-        <v>0.003535940441226105</v>
+        <v>0.01447513043979366</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="H33">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="I33">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="J33">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>68.241472</v>
       </c>
       <c r="O33">
-        <v>0.4808149140975291</v>
+        <v>0.5210689402517512</v>
       </c>
       <c r="P33">
-        <v>0.5626639618043182</v>
+        <v>0.6113140429691829</v>
       </c>
       <c r="Q33">
-        <v>83.62546549316266</v>
+        <v>79.5791480700089</v>
       </c>
       <c r="R33">
-        <v>752.6291894384639</v>
+        <v>716.21233263008</v>
       </c>
       <c r="S33">
-        <v>0.03233644592405098</v>
+        <v>0.04785542299982969</v>
       </c>
       <c r="T33">
-        <v>0.04726483922238123</v>
+        <v>0.07170850844930877</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="H34">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="I34">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="J34">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.281676</v>
+        <v>0.227324</v>
       </c>
       <c r="N34">
-        <v>0.845028</v>
+        <v>0.681972</v>
       </c>
       <c r="O34">
-        <v>0.005953887765346075</v>
+        <v>0.005207308941421534</v>
       </c>
       <c r="P34">
-        <v>0.006967417149436334</v>
+        <v>0.006109174498929033</v>
       </c>
       <c r="Q34">
-        <v>1.035526605504</v>
+        <v>0.7952752069533333</v>
       </c>
       <c r="R34">
-        <v>9.319739449535998</v>
+        <v>7.15747686258</v>
       </c>
       <c r="S34">
-        <v>0.0004004192967336482</v>
+        <v>0.0004782437655219374</v>
       </c>
       <c r="T34">
-        <v>0.0005852762460694044</v>
+        <v>0.0007166198719188239</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="H35">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="I35">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="J35">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>18.0933415</v>
+        <v>12.4459525</v>
       </c>
       <c r="N35">
-        <v>36.186683</v>
+        <v>24.891905</v>
       </c>
       <c r="O35">
-        <v>0.3824455210634858</v>
+        <v>0.2850993284376384</v>
       </c>
       <c r="P35">
-        <v>0.2983661082418763</v>
+        <v>0.2229842152694892</v>
       </c>
       <c r="Q35">
-        <v>66.51662372981599</v>
+        <v>43.54118988830417</v>
       </c>
       <c r="R35">
-        <v>399.0997423788959</v>
+        <v>261.247139329825</v>
       </c>
       <c r="S35">
-        <v>0.02572076811297992</v>
+        <v>0.02618376937370084</v>
       </c>
       <c r="T35">
-        <v>0.02506331859292654</v>
+        <v>0.02615654861624162</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="H36">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="I36">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="J36">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.179912</v>
+        <v>0.8556346666666667</v>
       </c>
       <c r="N36">
-        <v>9.539736</v>
+        <v>2.566904</v>
       </c>
       <c r="O36">
-        <v>0.06721495317910355</v>
+        <v>0.01960001605780106</v>
       </c>
       <c r="P36">
-        <v>0.07865694415746599</v>
+        <v>0.02299458695958035</v>
       </c>
       <c r="Q36">
-        <v>11.690323205248</v>
+        <v>2.993370856617778</v>
       </c>
       <c r="R36">
-        <v>105.212908847232</v>
+        <v>26.94033770956</v>
       </c>
       <c r="S36">
-        <v>0.004520435275688695</v>
+        <v>0.001800082458947469</v>
       </c>
       <c r="T36">
-        <v>0.006607332389664195</v>
+        <v>0.002697316628406909</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="H37">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="I37">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="J37">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.454891</v>
+        <v>0.4910896666666666</v>
       </c>
       <c r="N37">
-        <v>1.364673</v>
+        <v>1.473269</v>
       </c>
       <c r="O37">
-        <v>0.009615196038945603</v>
+        <v>0.01124938683233206</v>
       </c>
       <c r="P37">
-        <v>0.01125198935842686</v>
+        <v>0.0131976934608205</v>
       </c>
       <c r="Q37">
-        <v>1.672317602864</v>
+        <v>1.718038730142778</v>
       </c>
       <c r="R37">
-        <v>15.050858425776</v>
+        <v>15.462348571285</v>
       </c>
       <c r="S37">
-        <v>0.0006466547888725557</v>
+        <v>0.001033153434725677</v>
       </c>
       <c r="T37">
-        <v>0.0009451884322794893</v>
+        <v>0.001548119046063436</v>
       </c>
     </row>
   </sheetData>
